--- a/uploads/replace.xlsx
+++ b/uploads/replace.xlsx
@@ -326,7 +326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -342,72 +342,53 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>名前を入力</t>
+          <t>名前</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>兄弟はいますか</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>１日目,0</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>１日目,1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>１日目,2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>１日目,3</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>２日目,0</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>２日目,1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>２日目,2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>２日目,3</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>３日目,0</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>３日目,1</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>３日目,2</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>３日目,3</t>
+          <t>兄弟</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>合計</t>
         </is>
       </c>
     </row>
@@ -724,6 +705,17 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
@@ -759,6 +751,9 @@
       </c>
       <c r="O8" t="n">
         <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/replace.xlsx
+++ b/uploads/replace.xlsx
@@ -326,7 +326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,11 +386,6 @@
       <c r="O1" t="n">
         <v>12</v>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>合計</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -401,47 +396,19 @@
           <t>sss</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -453,11 +420,10 @@
           <t>bbb</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -465,35 +431,17 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -505,47 +453,28 @@
           <t>ccc</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -557,8 +486,10 @@
           <t>ddd</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -595,9 +526,6 @@
       </c>
       <c r="O5" t="n">
         <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -609,47 +537,28 @@
           <t>eee</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
         <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -661,8 +570,10 @@
           <t>fff</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -673,21 +584,6 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -696,64 +592,6 @@
       </c>
       <c r="N7" t="n">
         <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>合計</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +605,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -797,17 +635,17 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>１日目</t>
+          <t>出席可能日 [１日目]</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>２日目</t>
+          <t>出席可能日 [２日目]</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>３日目</t>
+          <t>出席可能日 [３日目]</t>
         </is>
       </c>
     </row>
@@ -820,8 +658,10 @@
           <t>sss</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
@@ -848,22 +688,24 @@
           <t>bbb</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -876,22 +718,24 @@
           <t>ccc</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0, 2</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0, 2</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>0, 2</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -904,22 +748,24 @@
           <t>ddd</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>0, 1, 2, 3</t>
+          <t>0,1,2,3</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>0, 1, 2, 3</t>
+          <t>0,1,2,3</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>0, 1, 2, 3</t>
+          <t>0,1,2,3</t>
         </is>
       </c>
     </row>
@@ -932,22 +778,24 @@
           <t>eee</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>0, 3</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>0, 3</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -960,12 +808,14 @@
           <t>fff</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>0, 1, 2</t>
+          <t>0,1,2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -975,7 +825,7 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>0, 1, 2</t>
+          <t>0,1,2</t>
         </is>
       </c>
     </row>

--- a/uploads/replace.xlsx
+++ b/uploads/replace.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="makedata" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="replace" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="print" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -335,262 +336,262 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>出席番号</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>兄弟</t>
         </is>
       </c>
-      <c r="D1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" t="n">
+      <c r="D1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N1" t="n">
+      <c r="N1" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="O1" t="n">
+      <c r="O1" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>sss</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>bbb</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>ccc</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>eee</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>fff</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -605,7 +606,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -818,7 +819,7 @@
           <t>0,1,2</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -829,7 +830,70 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>１日目</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>２日目</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>３日目</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9:00-10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
